--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H2">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I2">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J2">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>58.20112464350139</v>
+        <v>58.52240375825266</v>
       </c>
       <c r="R2">
-        <v>58.20112464350139</v>
+        <v>526.701633824274</v>
       </c>
       <c r="S2">
-        <v>0.09402714199325715</v>
+        <v>0.08541793317891572</v>
       </c>
       <c r="T2">
-        <v>0.09402714199325715</v>
+        <v>0.08541793317891572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H3">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I3">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J3">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>72.462422101667</v>
+        <v>72.77787230964445</v>
       </c>
       <c r="R3">
-        <v>72.462422101667</v>
+        <v>655.0008507868001</v>
       </c>
       <c r="S3">
-        <v>0.1170670583062273</v>
+        <v>0.1062248820046499</v>
       </c>
       <c r="T3">
-        <v>0.1170670583062273</v>
+        <v>0.1062248820046499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H4">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I4">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J4">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>53.09440250090605</v>
+        <v>54.52989205355789</v>
       </c>
       <c r="R4">
-        <v>53.09440250090605</v>
+        <v>490.769028482021</v>
       </c>
       <c r="S4">
-        <v>0.08577694939022577</v>
+        <v>0.07959055637777798</v>
       </c>
       <c r="T4">
-        <v>0.08577694939022577</v>
+        <v>0.07959055637777798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H5">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I5">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J5">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>45.13405152842466</v>
+        <v>46.90533061129623</v>
       </c>
       <c r="R5">
-        <v>45.13405152842466</v>
+        <v>422.1479755016661</v>
       </c>
       <c r="S5">
-        <v>0.07291656128277285</v>
+        <v>0.0684619246407092</v>
       </c>
       <c r="T5">
-        <v>0.07291656128277285</v>
+        <v>0.0684619246407092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H6">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I6">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J6">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>8.37916946937781</v>
+        <v>8.830315526057333</v>
       </c>
       <c r="R6">
-        <v>8.37916946937781</v>
+        <v>79.47283973451601</v>
       </c>
       <c r="S6">
-        <v>0.0135370125974142</v>
+        <v>0.01288852222593715</v>
       </c>
       <c r="T6">
-        <v>0.0135370125974142</v>
+        <v>0.01288852222593715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H7">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I7">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J7">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>51.89863200816742</v>
+        <v>53.53931382721868</v>
       </c>
       <c r="R7">
-        <v>51.89863200816742</v>
+        <v>481.853824444968</v>
       </c>
       <c r="S7">
-        <v>0.0838451158973031</v>
+        <v>0.07814473154297701</v>
       </c>
       <c r="T7">
-        <v>0.0838451158973031</v>
+        <v>0.07814473154297699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H8">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I8">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J8">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>64.61559982062691</v>
+        <v>66.5809518241778</v>
       </c>
       <c r="R8">
-        <v>64.61559982062691</v>
+        <v>599.2285664176002</v>
       </c>
       <c r="S8">
-        <v>0.104390082090827</v>
+        <v>0.09718000165200377</v>
       </c>
       <c r="T8">
-        <v>0.104390082090827</v>
+        <v>0.09718000165200376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H9">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I9">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J9">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>47.34490740456376</v>
+        <v>49.88675816666356</v>
       </c>
       <c r="R9">
-        <v>47.34490740456376</v>
+        <v>448.9808234999721</v>
       </c>
       <c r="S9">
-        <v>0.07648832146207668</v>
+        <v>0.07281354664096296</v>
       </c>
       <c r="T9">
-        <v>0.07648832146207668</v>
+        <v>0.07281354664096294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H10">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I10">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J10">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>40.24656818333363</v>
+        <v>42.9114160474569</v>
       </c>
       <c r="R10">
-        <v>40.24656818333363</v>
+        <v>386.2027444271121</v>
       </c>
       <c r="S10">
-        <v>0.06502056110591256</v>
+        <v>0.06263250025914119</v>
       </c>
       <c r="T10">
-        <v>0.06502056110591256</v>
+        <v>0.06263250025914117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H11">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I11">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J11">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N11">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q11">
-        <v>7.471804634171562</v>
+        <v>8.078428153701335</v>
       </c>
       <c r="R11">
-        <v>7.471804634171562</v>
+        <v>72.70585338331202</v>
       </c>
       <c r="S11">
-        <v>0.01207111442582015</v>
+        <v>0.01179108498471791</v>
       </c>
       <c r="T11">
-        <v>0.01207111442582015</v>
+        <v>0.01179108498471791</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H12">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I12">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J12">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N12">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q12">
-        <v>22.75669741695745</v>
+        <v>34.709005749316</v>
       </c>
       <c r="R12">
-        <v>22.75669741695745</v>
+        <v>312.381051743844</v>
       </c>
       <c r="S12">
-        <v>0.03676470570677821</v>
+        <v>0.05066045383317994</v>
       </c>
       <c r="T12">
-        <v>0.03676470570677821</v>
+        <v>0.05066045383317994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H13">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I13">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J13">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q13">
-        <v>28.33287885703442</v>
+        <v>43.16377021786667</v>
       </c>
       <c r="R13">
-        <v>28.33287885703442</v>
+        <v>388.4739319608</v>
       </c>
       <c r="S13">
-        <v>0.04577333581930348</v>
+        <v>0.06300083051014259</v>
       </c>
       <c r="T13">
-        <v>0.04577333581930348</v>
+        <v>0.06300083051014259</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H14">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I14">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J14">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N14">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q14">
-        <v>20.75996399808708</v>
+        <v>32.34109016804734</v>
       </c>
       <c r="R14">
-        <v>20.75996399808708</v>
+        <v>291.069811512426</v>
       </c>
       <c r="S14">
-        <v>0.03353887222248026</v>
+        <v>0.04720429957592086</v>
       </c>
       <c r="T14">
-        <v>0.03353887222248026</v>
+        <v>0.04720429957592085</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H15">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I15">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J15">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N15">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q15">
-        <v>17.64745887858732</v>
+        <v>27.81904510597734</v>
       </c>
       <c r="R15">
-        <v>17.64745887858732</v>
+        <v>250.371405953796</v>
       </c>
       <c r="S15">
-        <v>0.02851044772693021</v>
+        <v>0.04060402825863972</v>
       </c>
       <c r="T15">
-        <v>0.02851044772693021</v>
+        <v>0.04060402825863971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H16">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I16">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J16">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N16">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q16">
-        <v>3.276263566864423</v>
+        <v>5.237164789544</v>
       </c>
       <c r="R16">
-        <v>3.276263566864423</v>
+        <v>47.134483105896</v>
       </c>
       <c r="S16">
-        <v>0.005292985341706679</v>
+        <v>0.007644043363088207</v>
       </c>
       <c r="T16">
-        <v>0.005292985341706679</v>
+        <v>0.007644043363088207</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H17">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I17">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J17">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N17">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q17">
-        <v>18.97597693523703</v>
+        <v>19.21081268458333</v>
       </c>
       <c r="R17">
-        <v>18.97597693523703</v>
+        <v>172.89731416125</v>
       </c>
       <c r="S17">
-        <v>0.03065674226536671</v>
+        <v>0.02803965334340875</v>
       </c>
       <c r="T17">
-        <v>0.03065674226536671</v>
+        <v>0.02803965334340875</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H18">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I18">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J18">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q18">
-        <v>23.62575051419007</v>
+        <v>23.89037330555556</v>
       </c>
       <c r="R18">
-        <v>23.62575051419007</v>
+        <v>215.01335975</v>
       </c>
       <c r="S18">
-        <v>0.03816870914268597</v>
+        <v>0.03486983069019149</v>
       </c>
       <c r="T18">
-        <v>0.03816870914268597</v>
+        <v>0.03486983069019149</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H19">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I19">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J19">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N19">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q19">
-        <v>17.31097403046286</v>
+        <v>17.90021384423611</v>
       </c>
       <c r="R19">
-        <v>17.31097403046286</v>
+        <v>161.101924598125</v>
       </c>
       <c r="S19">
-        <v>0.02796683780896086</v>
+        <v>0.02612673389752292</v>
       </c>
       <c r="T19">
-        <v>0.02796683780896086</v>
+        <v>0.02612673389752291</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H20">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I20">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J20">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N20">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q20">
-        <v>14.71556994891879</v>
+        <v>15.39734293902778</v>
       </c>
       <c r="R20">
-        <v>14.71556994891879</v>
+        <v>138.57608645125</v>
       </c>
       <c r="S20">
-        <v>0.02377381869463912</v>
+        <v>0.02247360200260499</v>
       </c>
       <c r="T20">
-        <v>0.02377381869463912</v>
+        <v>0.02247360200260498</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.442765929902215</v>
+        <v>0.4477083333333334</v>
       </c>
       <c r="H21">
-        <v>0.442765929902215</v>
+        <v>1.343125</v>
       </c>
       <c r="I21">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="J21">
-        <v>0.1249797346309643</v>
+        <v>0.1157406609512359</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N21">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q21">
-        <v>2.731956256194262</v>
+        <v>2.898676859166667</v>
       </c>
       <c r="R21">
-        <v>2.731956256194262</v>
+        <v>26.0880917325</v>
       </c>
       <c r="S21">
-        <v>0.004413626719311643</v>
+        <v>0.004230841017507795</v>
       </c>
       <c r="T21">
-        <v>0.004413626719311643</v>
+        <v>0.004230841017507795</v>
       </c>
     </row>
   </sheetData>
